--- a/wages.xlsx
+++ b/wages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CE197D-E537-435E-AF56-325D512B8258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5072896-2AEF-4114-8B2B-46499D34B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>NSW</t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>TAS_actual_diff</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>ACT_actual_change</t>
+  </si>
+  <si>
+    <t>ACT_predicted_change</t>
+  </si>
+  <si>
+    <t>ACT_predicted</t>
+  </si>
+  <si>
+    <t>ACT_change_diff</t>
+  </si>
+  <si>
+    <t>ACT_actual_diff</t>
   </si>
 </sst>
 </file>
@@ -211,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -219,6 +237,8 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ55"/>
+  <dimension ref="A1:AW55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,38 +530,44 @@
     <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5546875" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" customWidth="1"/>
+    <col min="32" max="32" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" style="5" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.88671875" style="5" customWidth="1"/>
+    <col min="42" max="46" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -567,112 +593,130 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AW1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40238</v>
       </c>
@@ -697,8 +741,11 @@
       <c r="H2" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="I2" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40330</v>
       </c>
@@ -723,29 +770,32 @@
       <c r="H3" s="3">
         <v>104</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
+        <v>104.3</v>
+      </c>
+      <c r="J3">
         <v>0.7</v>
       </c>
-      <c r="J3">
-        <v>0.5</v>
-      </c>
       <c r="K3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.7</v>
       </c>
       <c r="M3">
+        <v>0.7</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>0.5</v>
-      </c>
       <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40422</v>
       </c>
@@ -770,29 +820,32 @@
       <c r="H4" s="3">
         <v>105.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
+        <v>106.2</v>
+      </c>
+      <c r="J4">
         <v>1.4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.8</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.6</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.4</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.3</v>
-      </c>
-      <c r="N4">
-        <v>1.5</v>
       </c>
       <c r="O4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>40513</v>
       </c>
@@ -817,29 +870,32 @@
       <c r="H5" s="3">
         <v>107</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
+        <v>107</v>
+      </c>
+      <c r="J5">
         <v>0.8</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.9</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.9</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.9</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40603</v>
       </c>
@@ -864,29 +920,32 @@
       <c r="H6" s="3">
         <v>108</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
+        <v>107.7</v>
+      </c>
+      <c r="J6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.9</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.6</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.7</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.6</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40695</v>
       </c>
@@ -911,29 +970,32 @@
       <c r="H7" s="3">
         <v>108.6</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
+        <v>107.9</v>
+      </c>
+      <c r="J7">
         <v>0.6</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.8</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.7</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.4</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.7</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40787</v>
       </c>
@@ -958,29 +1020,32 @@
       <c r="H8" s="3">
         <v>110</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
+        <v>109.3</v>
+      </c>
+      <c r="J8">
         <v>1.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.6</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.5</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1.9</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>40878</v>
       </c>
@@ -1005,29 +1070,32 @@
       <c r="H9" s="3">
         <v>111.3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
+        <v>110.1</v>
+      </c>
+      <c r="J9">
         <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>1.1000000000000001</v>
       </c>
       <c r="K9">
         <v>1.1000000000000001</v>
       </c>
       <c r="L9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M9">
         <v>0.9</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.7</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40969</v>
       </c>
@@ -1052,29 +1120,32 @@
       <c r="H10" s="3">
         <v>111.7</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
+        <v>111.3</v>
+      </c>
+      <c r="J10">
         <v>0.9</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.7</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.8</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.7</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.8</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.6</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41061</v>
       </c>
@@ -1099,29 +1170,32 @@
       <c r="H11" s="3">
         <v>112.2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
+        <v>112.2</v>
+      </c>
+      <c r="J11">
         <v>0.7</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.9</v>
       </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
       <c r="M11">
+        <v>0.5</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.6</v>
       </c>
-      <c r="O11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41153</v>
       </c>
@@ -1146,29 +1220,32 @@
       <c r="H12" s="3">
         <v>113.7</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
+        <v>114</v>
+      </c>
+      <c r="J12">
         <v>1.3</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1.8</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.3</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41244</v>
       </c>
@@ -1193,14 +1270,14 @@
       <c r="H13" s="3">
         <v>114.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
+        <v>114.8</v>
+      </c>
+      <c r="J13">
         <v>0.6</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="K13">
-        <v>0.7</v>
       </c>
       <c r="L13">
         <v>0.7</v>
@@ -1209,13 +1286,16 @@
         <v>0.7</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41334</v>
       </c>
@@ -1240,29 +1320,32 @@
       <c r="H14" s="3">
         <v>115.4</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
+        <v>115.1</v>
+      </c>
+      <c r="J14">
         <v>0.6</v>
       </c>
-      <c r="J14">
-        <v>0.5</v>
-      </c>
       <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
         <v>0.6</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.7</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N14">
-        <v>0.5</v>
-      </c>
       <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41426</v>
       </c>
@@ -1287,29 +1370,32 @@
       <c r="H15" s="3">
         <v>116</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
+        <v>115.5</v>
+      </c>
+      <c r="J15">
         <v>0.6</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.6</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.7</v>
       </c>
-      <c r="M15">
-        <v>0.5</v>
-      </c>
       <c r="N15">
         <v>0.5</v>
       </c>
       <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41518</v>
       </c>
@@ -1334,29 +1420,32 @@
       <c r="H16" s="3">
         <v>117</v>
       </c>
-      <c r="I16">
-        <v>1</v>
+      <c r="I16" s="6">
+        <v>117</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>1.2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.8</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.2</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41609</v>
       </c>
@@ -1381,29 +1470,32 @@
       <c r="H17" s="3">
         <v>117.8</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
+        <v>117.5</v>
+      </c>
+      <c r="J17">
         <v>0.6</v>
       </c>
-      <c r="J17">
-        <v>0.5</v>
-      </c>
       <c r="K17">
         <v>0.5</v>
       </c>
       <c r="L17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
         <v>0.6</v>
       </c>
       <c r="N17">
+        <v>0.6</v>
+      </c>
+      <c r="O17">
         <v>0.2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41699</v>
       </c>
@@ -1428,29 +1520,32 @@
       <c r="H18" s="3">
         <v>118.7</v>
       </c>
-      <c r="I18">
-        <v>0.7</v>
+      <c r="I18" s="6">
+        <v>117.7</v>
       </c>
       <c r="J18">
         <v>0.7</v>
       </c>
       <c r="K18">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
         <v>0.8</v>
       </c>
       <c r="M18">
+        <v>0.8</v>
+      </c>
+      <c r="N18">
         <v>0.6</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.7</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41791</v>
       </c>
@@ -1475,29 +1570,32 @@
       <c r="H19" s="3">
         <v>119.3</v>
       </c>
-      <c r="I19">
-        <v>0.5</v>
+      <c r="I19" s="6">
+        <v>118.1</v>
       </c>
       <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
         <v>0.7</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.4</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.3</v>
-      </c>
-      <c r="M19">
-        <v>0.4</v>
       </c>
       <c r="N19">
         <v>0.4</v>
       </c>
       <c r="O19">
+        <v>0.4</v>
+      </c>
+      <c r="P19">
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41883</v>
       </c>
@@ -1522,29 +1620,32 @@
       <c r="H20" s="3">
         <v>120.3</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
+        <v>119</v>
+      </c>
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1.3</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.9</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1.7</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41974</v>
       </c>
@@ -1569,29 +1670,32 @@
       <c r="H21" s="3">
         <v>120.8</v>
       </c>
-      <c r="I21">
-        <v>0.5</v>
+      <c r="I21" s="6">
+        <v>119.5</v>
       </c>
       <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
         <v>0.7</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.6</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.8</v>
       </c>
-      <c r="M21">
-        <v>0.5</v>
-      </c>
       <c r="N21">
+        <v>0.5</v>
+      </c>
+      <c r="O21">
         <v>0.3</v>
       </c>
-      <c r="O21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42064</v>
       </c>
@@ -1616,15 +1720,15 @@
       <c r="H22" s="3">
         <v>121.1</v>
       </c>
-      <c r="I22">
-        <v>0.5</v>
+      <c r="I22" s="6">
+        <v>119.8</v>
       </c>
       <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
         <v>0.3</v>
       </c>
-      <c r="K22">
-        <v>0.5</v>
-      </c>
       <c r="L22">
         <v>0.5</v>
       </c>
@@ -1632,13 +1736,16 @@
         <v>0.5</v>
       </c>
       <c r="N22">
+        <v>0.5</v>
+      </c>
+      <c r="O22">
         <v>0.6</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42156</v>
       </c>
@@ -1663,29 +1770,32 @@
       <c r="H23" s="3">
         <v>121.8</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
+        <v>120.3</v>
+      </c>
+      <c r="J23">
         <v>0.4</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.9</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.3</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.2</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.3</v>
       </c>
-      <c r="N23">
-        <v>0.5</v>
-      </c>
       <c r="O23">
+        <v>0.5</v>
+      </c>
+      <c r="P23">
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42248</v>
       </c>
@@ -1710,29 +1820,32 @@
       <c r="H24" s="3">
         <v>122.7</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
+        <v>120.9</v>
+      </c>
+      <c r="J24">
         <v>1.2</v>
-      </c>
-      <c r="J24">
-        <v>0.9</v>
       </c>
       <c r="K24">
         <v>0.9</v>
       </c>
       <c r="L24">
+        <v>0.9</v>
+      </c>
+      <c r="M24">
         <v>1.4</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.6</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1.5</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42339</v>
       </c>
@@ -1757,29 +1870,32 @@
       <c r="H25" s="3">
         <v>123</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
+        <v>121.4</v>
+      </c>
+      <c r="J25">
         <v>0.4</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.6</v>
       </c>
-      <c r="K25">
-        <v>0.5</v>
-      </c>
       <c r="L25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
         <v>0.4</v>
       </c>
       <c r="N25">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O25">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42430</v>
       </c>
@@ -1804,29 +1920,32 @@
       <c r="H26" s="3">
         <v>123.3</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
+        <v>122</v>
+      </c>
+      <c r="J26">
         <v>0.4</v>
       </c>
-      <c r="J26">
-        <v>0.5</v>
-      </c>
       <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
         <v>0.4</v>
-      </c>
-      <c r="L26">
-        <v>0.6</v>
       </c>
       <c r="M26">
         <v>0.6</v>
       </c>
       <c r="N26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O26">
+        <v>0.5</v>
+      </c>
+      <c r="P26">
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42522</v>
       </c>
@@ -1851,29 +1970,32 @@
       <c r="H27" s="3">
         <v>123.7</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
+        <v>122.6</v>
+      </c>
+      <c r="J27">
         <v>0.6</v>
       </c>
-      <c r="J27">
-        <v>0.5</v>
-      </c>
       <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
         <v>0.3</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.2</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.3</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.6</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42614</v>
       </c>
@@ -1898,29 +2020,32 @@
       <c r="H28" s="3">
         <v>124.6</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="6">
+        <v>123.2</v>
+      </c>
+      <c r="J28">
         <v>0.9</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.8</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.3</v>
       </c>
-      <c r="M28">
-        <v>0.5</v>
-      </c>
       <c r="N28">
+        <v>0.5</v>
+      </c>
+      <c r="O28">
         <v>1.5</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42705</v>
       </c>
@@ -1945,11 +2070,11 @@
       <c r="H29" s="3">
         <v>125</v>
       </c>
-      <c r="I29">
-        <v>0.5</v>
+      <c r="I29" s="6">
+        <v>123.7</v>
       </c>
       <c r="J29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
         <v>0.4</v>
@@ -1958,16 +2083,19 @@
         <v>0.4</v>
       </c>
       <c r="M29">
+        <v>0.4</v>
+      </c>
+      <c r="N29">
         <v>0.1</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.3</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42795</v>
       </c>
@@ -1992,29 +2120,32 @@
       <c r="H30" s="3">
         <v>125.4</v>
       </c>
-      <c r="I30">
-        <v>0.5</v>
+      <c r="I30" s="6">
+        <v>124.2</v>
       </c>
       <c r="J30">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
         <v>0.6</v>
       </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
       <c r="L30">
+        <v>0.5</v>
+      </c>
+      <c r="M30">
         <v>0.6</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.3</v>
-      </c>
-      <c r="N30">
-        <v>0.4</v>
       </c>
       <c r="O30">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42887</v>
       </c>
@@ -2039,29 +2170,32 @@
       <c r="H31" s="3">
         <v>125.8</v>
       </c>
-      <c r="I31">
-        <v>0.5</v>
+      <c r="I31" s="6">
+        <v>124.9</v>
       </c>
       <c r="J31">
         <v>0.5</v>
       </c>
       <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
         <v>0.3</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.2</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.4</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.2</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42979</v>
       </c>
@@ -2086,29 +2220,32 @@
       <c r="H32" s="3">
         <v>126.5</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="6">
+        <v>125.5</v>
+      </c>
+      <c r="J32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.9</v>
-      </c>
-      <c r="K32">
-        <v>1.3</v>
       </c>
       <c r="L32">
         <v>1.3</v>
       </c>
       <c r="M32">
+        <v>1.3</v>
+      </c>
+      <c r="N32">
         <v>0.9</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1.9</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43070</v>
       </c>
@@ -2133,29 +2270,32 @@
       <c r="H33" s="3">
         <v>126.7</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="6">
+        <v>126.1</v>
+      </c>
+      <c r="J33">
         <v>0.4</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.8</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.3</v>
       </c>
-      <c r="L33">
-        <v>0.5</v>
-      </c>
       <c r="M33">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N33">
         <v>0.3</v>
       </c>
       <c r="O33">
+        <v>0.3</v>
+      </c>
+      <c r="P33">
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43160</v>
       </c>
@@ -2180,8 +2320,8 @@
       <c r="H34" s="3">
         <v>127.1</v>
       </c>
-      <c r="I34">
-        <v>0.5</v>
+      <c r="I34" s="6">
+        <v>126.7</v>
       </c>
       <c r="J34">
         <v>0.5</v>
@@ -2193,16 +2333,19 @@
         <v>0.5</v>
       </c>
       <c r="M34">
+        <v>0.5</v>
+      </c>
+      <c r="N34">
         <v>0.4</v>
       </c>
-      <c r="N34">
-        <v>0.5</v>
-      </c>
       <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43252</v>
       </c>
@@ -2227,20 +2370,20 @@
       <c r="H35" s="3">
         <v>127.5</v>
       </c>
-      <c r="I35">
-        <v>0.6</v>
+      <c r="I35" s="6">
+        <v>127.2</v>
       </c>
       <c r="J35">
         <v>0.6</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
         <v>0.2</v>
-      </c>
-      <c r="M35">
-        <v>0.4</v>
       </c>
       <c r="N35">
         <v>0.4</v>
@@ -2248,8 +2391,11 @@
       <c r="O35">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43344</v>
       </c>
@@ -2274,29 +2420,32 @@
       <c r="H36" s="3">
         <v>128.30000000000001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="6">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="J36">
         <v>1.3</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="K36">
-        <v>1.5</v>
       </c>
       <c r="L36">
         <v>1.5</v>
       </c>
       <c r="M36">
+        <v>1.5</v>
+      </c>
+      <c r="N36">
         <v>0.8</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>2.4</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43435</v>
       </c>
@@ -2321,29 +2470,32 @@
       <c r="H37" s="3">
         <v>128.69999999999999</v>
       </c>
-      <c r="I37">
-        <v>0.5</v>
+      <c r="I37" s="6">
+        <v>128.6</v>
       </c>
       <c r="J37">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
         <v>1</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.4</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.7</v>
       </c>
-      <c r="M37">
-        <v>0.5</v>
-      </c>
       <c r="N37">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O37">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43525</v>
       </c>
@@ -2368,29 +2520,32 @@
       <c r="H38" s="3">
         <v>129.4</v>
       </c>
-      <c r="I38">
-        <v>0.5</v>
+      <c r="I38" s="6">
+        <v>129.30000000000001</v>
       </c>
       <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
         <v>0.6</v>
       </c>
-      <c r="K38">
-        <v>0.5</v>
-      </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38">
+        <v>0.5</v>
+      </c>
+      <c r="N38">
         <v>0.4</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.8</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43617</v>
       </c>
@@ -2415,29 +2570,32 @@
       <c r="H39" s="3">
         <v>129.69999999999999</v>
       </c>
-      <c r="I39">
-        <v>0.5</v>
+      <c r="I39" s="6">
+        <v>130</v>
       </c>
       <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
         <v>0.7</v>
-      </c>
-      <c r="K39">
-        <v>0.3</v>
       </c>
       <c r="L39">
         <v>0.3</v>
       </c>
       <c r="M39">
+        <v>0.3</v>
+      </c>
+      <c r="N39">
         <v>0.4</v>
       </c>
-      <c r="N39">
-        <v>0.5</v>
-      </c>
       <c r="O39">
+        <v>0.5</v>
+      </c>
+      <c r="P39">
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43709</v>
       </c>
@@ -2462,29 +2620,32 @@
       <c r="H40" s="3">
         <v>131</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="6">
+        <v>131.4</v>
+      </c>
+      <c r="J40">
         <v>1.2</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>1.4</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1.9</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>1</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>1.9</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43800</v>
       </c>
@@ -2509,29 +2670,32 @@
       <c r="H41" s="3">
         <v>131.6</v>
       </c>
-      <c r="I41">
-        <v>0.5</v>
+      <c r="I41" s="6">
+        <v>131.6</v>
       </c>
       <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
         <v>0.9</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.4</v>
       </c>
-      <c r="L41">
-        <v>0.5</v>
-      </c>
       <c r="M41">
         <v>0.5</v>
       </c>
       <c r="N41">
+        <v>0.5</v>
+      </c>
+      <c r="O41">
         <v>0.4</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43891</v>
       </c>
@@ -2556,8 +2720,8 @@
       <c r="H42" s="3">
         <v>132.1</v>
       </c>
-      <c r="I42">
-        <v>0.5</v>
+      <c r="I42" s="6">
+        <v>132.30000000000001</v>
       </c>
       <c r="J42">
         <v>0.5</v>
@@ -2566,117 +2730,120 @@
         <v>0.5</v>
       </c>
       <c r="L42">
+        <v>0.5</v>
+      </c>
+      <c r="M42">
         <v>0.7</v>
-      </c>
-      <c r="M42">
-        <v>0.6</v>
       </c>
       <c r="N42">
         <v>0.6</v>
       </c>
       <c r="O42">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P42">
+        <v>0.5</v>
+      </c>
+      <c r="R42">
         <v>0.57112300000000005</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>0.89303100000000002</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>0.49626700000000001</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <v>0.65778400000000004</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <v>0.65778400000000004</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <v>1.0009950000000001</v>
       </c>
-      <c r="V42">
+      <c r="X42">
         <v>0.85326000000000002</v>
       </c>
-      <c r="W42">
+      <c r="Z42">
         <v>132.799385</v>
       </c>
-      <c r="X42">
+      <c r="AA42">
         <v>134.85387499999999</v>
       </c>
-      <c r="Y42">
+      <c r="AB42">
         <v>132.70040599999999</v>
       </c>
-      <c r="Z42">
+      <c r="AC42">
         <v>134.52558999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AD42">
         <v>131.48133799999999</v>
       </c>
-      <c r="AB42">
+      <c r="AE42">
         <v>136.40129400000001</v>
       </c>
-      <c r="AC42">
+      <c r="AF42">
         <v>132.196856</v>
       </c>
-      <c r="AD42">
-        <f>I42-P42</f>
+      <c r="AH42">
+        <f>J42-R42</f>
         <v>-7.1123000000000047E-2</v>
       </c>
-      <c r="AE42">
-        <f t="shared" ref="AE42:AI42" si="0">J42-Q42</f>
+      <c r="AI42">
+        <f>K42-S42</f>
         <v>-0.39303100000000002</v>
       </c>
-      <c r="AF42">
-        <f t="shared" si="0"/>
+      <c r="AJ42">
+        <f>L42-T42</f>
         <v>3.7329999999999863E-3</v>
       </c>
-      <c r="AG42">
-        <f t="shared" si="0"/>
+      <c r="AK42">
+        <f>M42-U42</f>
         <v>4.221599999999992E-2</v>
       </c>
-      <c r="AH42">
-        <f t="shared" si="0"/>
+      <c r="AL42">
+        <f>N42-V42</f>
         <v>-5.7784000000000058E-2</v>
       </c>
-      <c r="AI42">
-        <f t="shared" si="0"/>
+      <c r="AM42">
+        <f>O42-W42</f>
         <v>-0.4009950000000001</v>
       </c>
-      <c r="AJ42">
-        <f>O42-V42</f>
+      <c r="AN42">
+        <f>P42-X42</f>
         <v>-0.35326000000000002</v>
       </c>
-      <c r="AK42" s="4">
-        <f>B42-W42</f>
+      <c r="AP42" s="4">
+        <f>B42-Z42</f>
         <v>-9.9385000000012269E-2</v>
       </c>
-      <c r="AL42" s="4">
-        <f t="shared" ref="AL42:AQ55" si="1">C42-X42</f>
+      <c r="AQ42" s="4">
+        <f>C42-AA42</f>
         <v>-0.25387499999999363</v>
       </c>
-      <c r="AM42" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR42" s="4">
+        <f>D42-AB42</f>
         <v>-4.0599999999813008E-4</v>
       </c>
-      <c r="AN42" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS42" s="4">
+        <f>E42-AC42</f>
         <v>0.17440999999999462</v>
       </c>
-      <c r="AO42" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT42" s="4">
+        <f>F42-AD42</f>
         <v>1.8662000000006174E-2</v>
       </c>
-      <c r="AP42" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU42" s="4">
+        <f>G42-AE42</f>
         <v>-0.30129400000001283</v>
       </c>
-      <c r="AQ42" s="4">
-        <f>H42-AC42</f>
+      <c r="AV42" s="4">
+        <f>H42-AF42</f>
         <v>-9.6856000000002496E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43983</v>
       </c>
@@ -2701,127 +2868,130 @@
       <c r="H43" s="3">
         <v>132.4</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="6">
+        <v>132.6</v>
+      </c>
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-0.3</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>-0.2</v>
-      </c>
-      <c r="L43">
-        <v>0.2</v>
       </c>
       <c r="M43">
         <v>0.2</v>
       </c>
       <c r="N43">
+        <v>0.2</v>
+      </c>
+      <c r="O43">
         <v>-0.1</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.3</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>0.58708700000000003</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>0.79656400000000005</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>0.311052</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <v>0.44700299999999998</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>0.44700299999999998</v>
       </c>
-      <c r="U43">
+      <c r="W43">
         <v>0.42210399999999998</v>
       </c>
-      <c r="V43">
+      <c r="X43">
         <v>0.80599500000000002</v>
       </c>
-      <c r="W43">
+      <c r="Z43">
         <v>133.38641699999999</v>
       </c>
-      <c r="X43">
+      <c r="AA43">
         <v>135.51437300000001</v>
       </c>
-      <c r="Y43">
+      <c r="AB43">
         <v>133.024742</v>
       </c>
-      <c r="Z43">
+      <c r="AC43">
         <v>134.92783800000001</v>
       </c>
-      <c r="AA43">
+      <c r="AD43">
         <v>131.87812199999999</v>
       </c>
-      <c r="AB43">
+      <c r="AE43">
         <v>136.64911799999999</v>
       </c>
-      <c r="AC43">
+      <c r="AF43">
         <v>132.72954300000001</v>
       </c>
-      <c r="AD43">
-        <f t="shared" ref="AD43:AD55" si="2">I43-P43</f>
+      <c r="AH43">
+        <f t="shared" ref="AH43:AH55" si="0">J43-R43</f>
         <v>-0.58708700000000003</v>
       </c>
-      <c r="AE43">
-        <f t="shared" ref="AE43:AE55" si="3">J43-Q43</f>
+      <c r="AI43">
+        <f t="shared" ref="AI43:AI55" si="1">K43-S43</f>
         <v>-1.0965640000000001</v>
       </c>
-      <c r="AF43">
-        <f t="shared" ref="AF43:AF55" si="4">K43-R43</f>
+      <c r="AJ43">
+        <f t="shared" ref="AJ43:AJ55" si="2">L43-T43</f>
         <v>-0.51105200000000006</v>
       </c>
-      <c r="AG43">
-        <f t="shared" ref="AG43:AG55" si="5">L43-S43</f>
+      <c r="AK43">
+        <f t="shared" ref="AK43:AK55" si="3">M43-U43</f>
         <v>-0.24700299999999997</v>
       </c>
-      <c r="AH43">
-        <f t="shared" ref="AH43:AH55" si="6">M43-T43</f>
+      <c r="AL43">
+        <f t="shared" ref="AL43:AL55" si="4">N43-V43</f>
         <v>-0.24700299999999997</v>
       </c>
-      <c r="AI43">
-        <f t="shared" ref="AI43:AI55" si="7">N43-U43</f>
+      <c r="AM43">
+        <f t="shared" ref="AM43:AM55" si="5">O43-W43</f>
         <v>-0.52210400000000001</v>
       </c>
-      <c r="AJ43">
-        <f t="shared" ref="AJ43:AJ55" si="8">O43-V43</f>
+      <c r="AN43">
+        <f t="shared" ref="AN43:AN55" si="6">P43-X43</f>
         <v>-0.50599499999999997</v>
       </c>
-      <c r="AK43" s="4">
-        <f t="shared" ref="AK43:AK55" si="9">B43-W43</f>
+      <c r="AP43" s="4">
+        <f t="shared" ref="AP43:AP55" si="7">B43-Z43</f>
         <v>-0.68641700000000583</v>
       </c>
-      <c r="AL43" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ43" s="4">
+        <f>C43-AA43</f>
         <v>-1.2143729999999948</v>
       </c>
-      <c r="AM43" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR43" s="4">
+        <f>D43-AB43</f>
         <v>-0.52474200000000337</v>
       </c>
-      <c r="AN43" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS43" s="4">
+        <f>E43-AC43</f>
         <v>-2.7838000000002694E-2</v>
       </c>
-      <c r="AO43" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT43" s="4">
+        <f>F43-AD43</f>
         <v>-0.17812200000000189</v>
       </c>
-      <c r="AP43" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU43" s="4">
+        <f>G43-AE43</f>
         <v>-0.64911799999998721</v>
       </c>
-      <c r="AQ43" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV43" s="4">
+        <f>H43-AF43</f>
         <v>-0.32954300000000103</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44075</v>
       </c>
@@ -2846,127 +3016,130 @@
       <c r="H44" s="3">
         <v>132.9</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="6">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="J44">
         <v>0.8</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.2</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.8</v>
-      </c>
-      <c r="L44">
-        <v>0.6</v>
       </c>
       <c r="M44">
         <v>0.6</v>
       </c>
       <c r="N44">
+        <v>0.6</v>
+      </c>
+      <c r="O44">
         <v>0.7</v>
       </c>
-      <c r="O44">
-        <v>0.5</v>
-      </c>
       <c r="P44">
+        <v>0.5</v>
+      </c>
+      <c r="R44">
         <v>1.152774</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>1.399545</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <v>1.33422</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <v>1.9290959999999999</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <v>1.9290959999999999</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <v>2.4969589999999999</v>
       </c>
-      <c r="V44">
+      <c r="X44">
         <v>0.93515300000000001</v>
       </c>
-      <c r="W44">
+      <c r="Z44">
         <v>134.57239300000001</v>
       </c>
-      <c r="X44">
+      <c r="AA44">
         <v>136.77102099999999</v>
       </c>
-      <c r="Y44">
+      <c r="AB44">
         <v>134.38024300000001</v>
       </c>
-      <c r="Z44">
+      <c r="AC44">
         <v>136.777119</v>
       </c>
-      <c r="AA44">
+      <c r="AD44">
         <v>132.687138</v>
       </c>
-      <c r="AB44">
+      <c r="AE44">
         <v>138.94487599999999</v>
       </c>
-      <c r="AC44">
+      <c r="AF44">
         <v>133.66756899999999</v>
       </c>
-      <c r="AD44">
+      <c r="AH44">
+        <f t="shared" si="0"/>
+        <v>-0.35277399999999992</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="1"/>
+        <v>-1.1995450000000001</v>
+      </c>
+      <c r="AJ44">
         <f t="shared" si="2"/>
-        <v>-0.35277399999999992</v>
-      </c>
-      <c r="AE44">
+        <v>-0.53421999999999992</v>
+      </c>
+      <c r="AK44">
         <f t="shared" si="3"/>
-        <v>-1.1995450000000001</v>
-      </c>
-      <c r="AF44">
+        <v>-1.3290959999999998</v>
+      </c>
+      <c r="AL44">
         <f t="shared" si="4"/>
-        <v>-0.53421999999999992</v>
-      </c>
-      <c r="AG44">
+        <v>-1.3290959999999998</v>
+      </c>
+      <c r="AM44">
         <f t="shared" si="5"/>
-        <v>-1.3290959999999998</v>
-      </c>
-      <c r="AH44">
+        <v>-1.796959</v>
+      </c>
+      <c r="AN44">
         <f t="shared" si="6"/>
-        <v>-1.3290959999999998</v>
-      </c>
-      <c r="AI44">
+        <v>-0.43515300000000001</v>
+      </c>
+      <c r="AP44" s="4">
         <f t="shared" si="7"/>
-        <v>-1.796959</v>
-      </c>
-      <c r="AJ44">
-        <f t="shared" si="8"/>
-        <v>-0.43515300000000001</v>
-      </c>
-      <c r="AK44" s="4">
-        <f t="shared" si="9"/>
         <v>-1.0723930000000053</v>
       </c>
-      <c r="AL44" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ44" s="4">
+        <f>C44-AA44</f>
         <v>-2.2710209999999904</v>
       </c>
-      <c r="AM44" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR44" s="4">
+        <f>D44-AB44</f>
         <v>-1.0802429999999958</v>
       </c>
-      <c r="AN44" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS44" s="4">
+        <f>E44-AC44</f>
         <v>-1.277118999999999</v>
       </c>
-      <c r="AO44" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT44" s="4">
+        <f>F44-AD44</f>
         <v>-0.3871379999999931</v>
       </c>
-      <c r="AP44" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU44" s="4">
+        <f>G44-AE44</f>
         <v>-2.244876000000005</v>
       </c>
-      <c r="AQ44" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV44" s="4">
+        <f>H44-AF44</f>
         <v>-0.76756899999998041</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44166</v>
       </c>
@@ -2991,127 +3164,130 @@
       <c r="H45" s="3">
         <v>133.4</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="6">
+        <v>133.5</v>
+      </c>
+      <c r="J45">
         <v>0.6</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K45">
-        <v>0.5</v>
-      </c>
       <c r="L45">
+        <v>0.5</v>
+      </c>
+      <c r="M45">
         <v>0.3</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.7</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>0.6</v>
       </c>
-      <c r="O45">
-        <v>0.5</v>
-      </c>
       <c r="P45">
+        <v>0.5</v>
+      </c>
+      <c r="R45">
         <v>0.55145999999999995</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <v>1.2417</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <v>0.37742599999999998</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <v>0.57349399999999995</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>0.57349399999999995</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <v>0.63770700000000002</v>
       </c>
-      <c r="V45">
+      <c r="X45">
         <v>0.729541</v>
       </c>
-      <c r="W45">
+      <c r="Z45">
         <v>135.06475</v>
       </c>
-      <c r="X45">
+      <c r="AA45">
         <v>137.80092500000001</v>
       </c>
-      <c r="Y45">
+      <c r="AB45">
         <v>134.78363200000001</v>
       </c>
-      <c r="Z45">
+      <c r="AC45">
         <v>137.23720800000001</v>
       </c>
-      <c r="AA45">
+      <c r="AD45">
         <v>133.19104400000001</v>
       </c>
-      <c r="AB45">
+      <c r="AE45">
         <v>139.35891799999999</v>
       </c>
-      <c r="AC45">
+      <c r="AF45">
         <v>134.10102800000001</v>
       </c>
-      <c r="AD45">
+      <c r="AH45">
+        <f t="shared" si="0"/>
+        <v>4.8540000000000028E-2</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="1"/>
+        <v>-0.14169999999999994</v>
+      </c>
+      <c r="AJ45">
         <f t="shared" si="2"/>
-        <v>4.8540000000000028E-2</v>
-      </c>
-      <c r="AE45">
+        <v>0.12257400000000002</v>
+      </c>
+      <c r="AK45">
         <f t="shared" si="3"/>
-        <v>-0.14169999999999994</v>
-      </c>
-      <c r="AF45">
+        <v>-0.27349399999999996</v>
+      </c>
+      <c r="AL45">
         <f t="shared" si="4"/>
-        <v>0.12257400000000002</v>
-      </c>
-      <c r="AG45">
+        <v>0.12650600000000001</v>
+      </c>
+      <c r="AM45">
         <f t="shared" si="5"/>
-        <v>-0.27349399999999996</v>
-      </c>
-      <c r="AH45">
+        <v>-3.7707000000000046E-2</v>
+      </c>
+      <c r="AN45">
         <f t="shared" si="6"/>
-        <v>0.12650600000000001</v>
-      </c>
-      <c r="AI45">
+        <v>-0.229541</v>
+      </c>
+      <c r="AP45" s="4">
         <f t="shared" si="7"/>
-        <v>-3.7707000000000046E-2</v>
-      </c>
-      <c r="AJ45">
-        <f t="shared" si="8"/>
-        <v>-0.229541</v>
-      </c>
-      <c r="AK45" s="4">
-        <f t="shared" si="9"/>
         <v>-0.96475000000000932</v>
       </c>
-      <c r="AL45" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ45" s="4">
+        <f>C45-AA45</f>
         <v>-2.2009250000000122</v>
       </c>
-      <c r="AM45" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR45" s="4">
+        <f>D45-AB45</f>
         <v>-0.98363200000000006</v>
       </c>
-      <c r="AN45" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS45" s="4">
+        <f>E45-AC45</f>
         <v>-1.4372079999999983</v>
       </c>
-      <c r="AO45" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT45" s="4">
+        <f>F45-AD45</f>
         <v>-0.1910440000000051</v>
       </c>
-      <c r="AP45" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU45" s="4">
+        <f>G45-AE45</f>
         <v>-2.0589179999999772</v>
       </c>
-      <c r="AQ45" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV45" s="4">
+        <f>H45-AF45</f>
         <v>-0.70102800000000798</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44256</v>
       </c>
@@ -3136,127 +3312,130 @@
       <c r="H46" s="3">
         <v>134.4</v>
       </c>
-      <c r="I46">
-        <v>0.8</v>
+      <c r="I46" s="6">
+        <v>134</v>
       </c>
       <c r="J46">
         <v>0.8</v>
       </c>
       <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46">
         <v>0.7</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.9</v>
       </c>
-      <c r="M46">
-        <v>0.5</v>
-      </c>
       <c r="N46">
+        <v>0.5</v>
+      </c>
+      <c r="O46">
         <v>0.9</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>1</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>0.50489499999999998</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>0.89800899999999995</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>0.48696299999999998</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <v>0.74165700000000001</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>0.74165700000000001</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <v>1.200752</v>
       </c>
-      <c r="V46">
+      <c r="X46">
         <v>0.82382699999999998</v>
       </c>
-      <c r="W46">
+      <c r="Z46">
         <v>135.64851100000001</v>
       </c>
-      <c r="X46">
+      <c r="AA46">
         <v>138.47327300000001</v>
       </c>
-      <c r="Y46">
+      <c r="AB46">
         <v>135.29234600000001</v>
       </c>
-      <c r="Z46">
+      <c r="AC46">
         <v>137.786959</v>
       </c>
-      <c r="AA46">
+      <c r="AD46">
         <v>133.857181</v>
       </c>
-      <c r="AB46">
+      <c r="AE46">
         <v>140.264062</v>
       </c>
-      <c r="AC46">
+      <c r="AF46">
         <v>134.66341800000001</v>
       </c>
-      <c r="AD46">
+      <c r="AH46">
+        <f t="shared" si="0"/>
+        <v>0.29510500000000006</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="1"/>
+        <v>-9.8008999999999902E-2</v>
+      </c>
+      <c r="AJ46">
         <f t="shared" si="2"/>
-        <v>0.29510500000000006</v>
-      </c>
-      <c r="AE46">
+        <v>0.21303699999999998</v>
+      </c>
+      <c r="AK46">
         <f t="shared" si="3"/>
-        <v>-9.8008999999999902E-2</v>
-      </c>
-      <c r="AF46">
+        <v>0.15834300000000001</v>
+      </c>
+      <c r="AL46">
         <f t="shared" si="4"/>
-        <v>0.21303699999999998</v>
-      </c>
-      <c r="AG46">
+        <v>-0.24165700000000001</v>
+      </c>
+      <c r="AM46">
         <f t="shared" si="5"/>
-        <v>0.15834300000000001</v>
-      </c>
-      <c r="AH46">
+        <v>-0.30075200000000002</v>
+      </c>
+      <c r="AN46">
         <f t="shared" si="6"/>
-        <v>-0.24165700000000001</v>
-      </c>
-      <c r="AI46">
+        <v>0.17617300000000002</v>
+      </c>
+      <c r="AP46" s="4">
         <f t="shared" si="7"/>
-        <v>-0.30075200000000002</v>
-      </c>
-      <c r="AJ46">
-        <f t="shared" si="8"/>
-        <v>0.17617300000000002</v>
-      </c>
-      <c r="AK46" s="4">
-        <f t="shared" si="9"/>
         <v>-0.7485110000000077</v>
       </c>
-      <c r="AL46" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ46" s="4">
+        <f>C46-AA46</f>
         <v>-2.0732730000000004</v>
       </c>
-      <c r="AM46" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR46" s="4">
+        <f>D46-AB46</f>
         <v>-0.7923460000000091</v>
       </c>
-      <c r="AN46" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS46" s="4">
+        <f>E46-AC46</f>
         <v>-1.0869590000000073</v>
       </c>
-      <c r="AO46" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT46" s="4">
+        <f>F46-AD46</f>
         <v>-0.35718099999999708</v>
       </c>
-      <c r="AP46" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU46" s="4">
+        <f>G46-AE46</f>
         <v>-2.0640620000000069</v>
       </c>
-      <c r="AQ46" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV46" s="4">
+        <f>H46-AF46</f>
         <v>-0.26341800000000148</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44348</v>
       </c>
@@ -3281,127 +3460,130 @@
       <c r="H47" s="3">
         <v>134.69999999999999</v>
       </c>
-      <c r="I47">
-        <v>0.4</v>
+      <c r="I47" s="6">
+        <v>134.80000000000001</v>
       </c>
       <c r="J47">
         <v>0.4</v>
       </c>
       <c r="K47">
+        <v>0.4</v>
+      </c>
+      <c r="L47">
         <v>0.6</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.4</v>
       </c>
-      <c r="M47">
-        <v>0.5</v>
-      </c>
       <c r="N47">
+        <v>0.5</v>
+      </c>
+      <c r="O47">
         <v>0.8</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.3</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <v>0.69818199999999997</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <v>1.137351</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <v>0.31835999999999998</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <v>0.60935600000000001</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <v>0.60935600000000001</v>
       </c>
-      <c r="U47">
+      <c r="W47">
         <v>0.80387299999999995</v>
       </c>
-      <c r="V47">
+      <c r="X47">
         <v>0.80322000000000005</v>
       </c>
-      <c r="W47">
+      <c r="Z47">
         <v>136.33721700000001</v>
       </c>
-      <c r="X47">
+      <c r="AA47">
         <v>139.30172099999999</v>
       </c>
-      <c r="Y47">
+      <c r="AB47">
         <v>135.643137</v>
       </c>
-      <c r="Z47">
+      <c r="AC47">
         <v>138.276714</v>
       </c>
-      <c r="AA47">
+      <c r="AD47">
         <v>134.292596</v>
       </c>
-      <c r="AB47">
+      <c r="AE47">
         <v>140.69406900000001</v>
       </c>
-      <c r="AC47">
+      <c r="AF47">
         <v>135.23745500000001</v>
       </c>
-      <c r="AD47">
+      <c r="AH47">
+        <f t="shared" si="0"/>
+        <v>-0.29818199999999995</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="1"/>
+        <v>-0.73735099999999998</v>
+      </c>
+      <c r="AJ47">
         <f t="shared" si="2"/>
-        <v>-0.29818199999999995</v>
-      </c>
-      <c r="AE47">
+        <v>0.28164</v>
+      </c>
+      <c r="AK47">
         <f t="shared" si="3"/>
-        <v>-0.73735099999999998</v>
-      </c>
-      <c r="AF47">
+        <v>-0.20935599999999999</v>
+      </c>
+      <c r="AL47">
         <f t="shared" si="4"/>
-        <v>0.28164</v>
-      </c>
-      <c r="AG47">
+        <v>-0.10935600000000001</v>
+      </c>
+      <c r="AM47">
         <f t="shared" si="5"/>
-        <v>-0.20935599999999999</v>
-      </c>
-      <c r="AH47">
+        <v>-3.8729999999999043E-3</v>
+      </c>
+      <c r="AN47">
         <f t="shared" si="6"/>
-        <v>-0.10935600000000001</v>
-      </c>
-      <c r="AI47">
+        <v>-0.50322</v>
+      </c>
+      <c r="AP47" s="4">
         <f t="shared" si="7"/>
-        <v>-3.8729999999999043E-3</v>
-      </c>
-      <c r="AJ47">
-        <f t="shared" si="8"/>
-        <v>-0.50322</v>
-      </c>
-      <c r="AK47" s="4">
-        <f t="shared" si="9"/>
         <v>-1.0372169999999983</v>
       </c>
-      <c r="AL47" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ47" s="4">
+        <f>C47-AA47</f>
         <v>-2.501720999999975</v>
       </c>
-      <c r="AM47" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR47" s="4">
+        <f>D47-AB47</f>
         <v>-0.54313700000000154</v>
       </c>
-      <c r="AN47" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS47" s="4">
+        <f>E47-AC47</f>
         <v>-1.176714000000004</v>
       </c>
-      <c r="AO47" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT47" s="4">
+        <f>F47-AD47</f>
         <v>-0.29259600000000319</v>
       </c>
-      <c r="AP47" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU47" s="4">
+        <f>G47-AE47</f>
         <v>-1.6940690000000131</v>
       </c>
-      <c r="AQ47" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV47" s="4">
+        <f>H47-AF47</f>
         <v>-0.53745500000002266</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44440</v>
       </c>
@@ -3426,14 +3608,14 @@
       <c r="H48" s="3">
         <v>136</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="6">
+        <v>136.1</v>
+      </c>
+      <c r="J48">
         <v>1.2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1.3</v>
-      </c>
-      <c r="K48">
-        <v>1.2</v>
       </c>
       <c r="L48">
         <v>1.2</v>
@@ -3442,111 +3624,114 @@
         <v>1.2</v>
       </c>
       <c r="N48">
+        <v>1.2</v>
+      </c>
+      <c r="O48">
         <v>1.8</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>1.3</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <v>1.3808860000000001</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <v>1.5749070000000001</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <v>1.2704610000000001</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <v>1.952987</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>1.952987</v>
       </c>
-      <c r="U48">
+      <c r="W48">
         <v>2.8129309999999998</v>
       </c>
-      <c r="V48">
+      <c r="X48">
         <v>0.85869200000000001</v>
       </c>
-      <c r="W48">
+      <c r="Z48">
         <v>137.72462100000001</v>
       </c>
-      <c r="X48">
+      <c r="AA48">
         <v>140.61742899999999</v>
       </c>
-      <c r="Y48">
+      <c r="AB48">
         <v>136.95854800000001</v>
       </c>
-      <c r="Z48">
+      <c r="AC48">
         <v>140.068084</v>
       </c>
-      <c r="AA48">
+      <c r="AD48">
         <v>135.02402900000001</v>
       </c>
-      <c r="AB48">
+      <c r="AE48">
         <v>143.09528299999999</v>
       </c>
-      <c r="AC48">
+      <c r="AF48">
         <v>136.23658800000001</v>
       </c>
-      <c r="AD48">
+      <c r="AH48">
+        <f t="shared" si="0"/>
+        <v>-0.1808860000000001</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="1"/>
+        <v>-0.27490700000000001</v>
+      </c>
+      <c r="AJ48">
         <f t="shared" si="2"/>
-        <v>-0.1808860000000001</v>
-      </c>
-      <c r="AE48">
+        <v>-7.0461000000000107E-2</v>
+      </c>
+      <c r="AK48">
         <f t="shared" si="3"/>
-        <v>-0.27490700000000001</v>
-      </c>
-      <c r="AF48">
+        <v>-0.75298700000000007</v>
+      </c>
+      <c r="AL48">
         <f t="shared" si="4"/>
-        <v>-7.0461000000000107E-2</v>
-      </c>
-      <c r="AG48">
+        <v>-0.75298700000000007</v>
+      </c>
+      <c r="AM48">
         <f t="shared" si="5"/>
-        <v>-0.75298700000000007</v>
-      </c>
-      <c r="AH48">
+        <v>-1.0129309999999998</v>
+      </c>
+      <c r="AN48">
         <f t="shared" si="6"/>
-        <v>-0.75298700000000007</v>
-      </c>
-      <c r="AI48">
+        <v>0.44130800000000003</v>
+      </c>
+      <c r="AP48" s="4">
         <f t="shared" si="7"/>
-        <v>-1.0129309999999998</v>
-      </c>
-      <c r="AJ48">
-        <f t="shared" si="8"/>
-        <v>0.44130800000000003</v>
-      </c>
-      <c r="AK48" s="4">
-        <f t="shared" si="9"/>
         <v>-1.2246210000000133</v>
       </c>
-      <c r="AL48" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ48" s="4">
+        <f>C48-AA48</f>
         <v>-2.5174289999999928</v>
       </c>
-      <c r="AM48" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR48" s="4">
+        <f>D48-AB48</f>
         <v>-0.65854799999999614</v>
       </c>
-      <c r="AN48" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS48" s="4">
+        <f>E48-AC48</f>
         <v>-1.7680839999999876</v>
       </c>
-      <c r="AO48" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT48" s="4">
+        <f>F48-AD48</f>
         <v>0.17597099999997567</v>
       </c>
-      <c r="AP48" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU48" s="4">
+        <f>G48-AE48</f>
         <v>-2.2952829999999835</v>
       </c>
-      <c r="AQ48" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV48" s="4">
+        <f>H48-AF48</f>
         <v>-0.23658800000001179</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44531</v>
       </c>
@@ -3571,127 +3756,130 @@
       <c r="H49" s="3">
         <v>136.9</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="6">
+        <v>137</v>
+      </c>
+      <c r="J49">
         <v>0.9</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.7</v>
-      </c>
-      <c r="K49">
-        <v>0.8</v>
       </c>
       <c r="L49">
         <v>0.8</v>
       </c>
       <c r="M49">
+        <v>0.8</v>
+      </c>
+      <c r="N49">
         <v>0.6</v>
-      </c>
-      <c r="N49">
-        <v>0.9</v>
       </c>
       <c r="O49">
         <v>0.9</v>
       </c>
       <c r="P49">
+        <v>0.9</v>
+      </c>
+      <c r="R49">
         <v>0.56533500000000003</v>
       </c>
-      <c r="Q49">
+      <c r="S49">
         <v>1.5061439999999999</v>
       </c>
-      <c r="R49">
+      <c r="T49">
         <v>0.35586299999999998</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <v>0.65049800000000002</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <v>0.65049800000000002</v>
       </c>
-      <c r="U49">
+      <c r="W49">
         <v>0.88349100000000003</v>
       </c>
-      <c r="V49">
+      <c r="X49">
         <v>0.79432899999999995</v>
       </c>
-      <c r="W49">
+      <c r="Z49">
         <v>138.31215499999999</v>
       </c>
-      <c r="X49">
+      <c r="AA49">
         <v>141.78380000000001</v>
       </c>
-      <c r="Y49">
+      <c r="AB49">
         <v>137.36677900000001</v>
       </c>
-      <c r="Z49">
+      <c r="AC49">
         <v>140.491435</v>
       </c>
-      <c r="AA49">
+      <c r="AD49">
         <v>135.52362099999999</v>
       </c>
-      <c r="AB49">
+      <c r="AE49">
         <v>143.52583899999999</v>
       </c>
-      <c r="AC49">
+      <c r="AF49">
         <v>136.83249000000001</v>
       </c>
-      <c r="AD49">
+      <c r="AH49">
+        <f t="shared" si="0"/>
+        <v>0.33466499999999999</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="1"/>
+        <v>-0.80614399999999997</v>
+      </c>
+      <c r="AJ49">
         <f t="shared" si="2"/>
-        <v>0.33466499999999999</v>
-      </c>
-      <c r="AE49">
+        <v>0.44413700000000006</v>
+      </c>
+      <c r="AK49">
         <f t="shared" si="3"/>
-        <v>-0.80614399999999997</v>
-      </c>
-      <c r="AF49">
+        <v>0.14950200000000002</v>
+      </c>
+      <c r="AL49">
         <f t="shared" si="4"/>
-        <v>0.44413700000000006</v>
-      </c>
-      <c r="AG49">
+        <v>-5.0498000000000043E-2</v>
+      </c>
+      <c r="AM49">
         <f t="shared" si="5"/>
-        <v>0.14950200000000002</v>
-      </c>
-      <c r="AH49">
+        <v>1.6508999999999996E-2</v>
+      </c>
+      <c r="AN49">
         <f t="shared" si="6"/>
-        <v>-5.0498000000000043E-2</v>
-      </c>
-      <c r="AI49">
+        <v>0.10567100000000007</v>
+      </c>
+      <c r="AP49" s="4">
         <f t="shared" si="7"/>
-        <v>1.6508999999999996E-2</v>
-      </c>
-      <c r="AJ49">
-        <f t="shared" si="8"/>
-        <v>0.10567100000000007</v>
-      </c>
-      <c r="AK49" s="4">
-        <f t="shared" si="9"/>
         <v>-0.91215499999998428</v>
       </c>
-      <c r="AL49" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ49" s="4">
+        <f>C49-AA49</f>
         <v>-2.9838000000000022</v>
       </c>
-      <c r="AM49" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR49" s="4">
+        <f>D49-AB49</f>
         <v>-0.26677900000001387</v>
       </c>
-      <c r="AN49" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS49" s="4">
+        <f>E49-AC49</f>
         <v>-1.3914350000000013</v>
       </c>
-      <c r="AO49" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT49" s="4">
+        <f>F49-AD49</f>
         <v>0.27637900000001991</v>
       </c>
-      <c r="AP49" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU49" s="4">
+        <f>G49-AE49</f>
         <v>-1.825839000000002</v>
       </c>
-      <c r="AQ49" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV49" s="4">
+        <f>H49-AF49</f>
         <v>6.7509999999998627E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44621</v>
       </c>
@@ -3716,127 +3904,130 @@
       <c r="H50" s="3">
         <v>137.4</v>
       </c>
-      <c r="I50">
-        <v>0.7</v>
+      <c r="I50" s="6">
+        <v>137.69999999999999</v>
       </c>
       <c r="J50">
         <v>0.7</v>
       </c>
       <c r="K50">
+        <v>0.7</v>
+      </c>
+      <c r="L50">
         <v>0.6</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0.7</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.9</v>
       </c>
-      <c r="N50">
-        <v>0.5</v>
-      </c>
       <c r="O50">
         <v>0.5</v>
       </c>
       <c r="P50">
+        <v>0.5</v>
+      </c>
+      <c r="R50">
         <v>0.588005</v>
       </c>
-      <c r="Q50">
+      <c r="S50">
         <v>1.171281</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <v>0.47699900000000001</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <v>0.82897100000000001</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <v>0.82897100000000001</v>
       </c>
-      <c r="U50">
+      <c r="W50">
         <v>1.442107</v>
       </c>
-      <c r="V50">
+      <c r="X50">
         <v>0.87978000000000001</v>
       </c>
-      <c r="W50">
+      <c r="Z50">
         <v>138.89974900000001</v>
       </c>
-      <c r="X50">
+      <c r="AA50">
         <v>142.54522299999999</v>
       </c>
-      <c r="Y50">
+      <c r="AB50">
         <v>137.88404600000001</v>
       </c>
-      <c r="Z50">
+      <c r="AC50">
         <v>141.06680399999999</v>
       </c>
-      <c r="AA50">
+      <c r="AD50">
         <v>136.209069</v>
       </c>
-      <c r="AB50">
+      <c r="AE50">
         <v>144.46240599999999</v>
       </c>
-      <c r="AC50">
+      <c r="AF50">
         <v>137.689571</v>
       </c>
-      <c r="AD50">
+      <c r="AH50">
+        <f t="shared" si="0"/>
+        <v>0.11199499999999996</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="1"/>
+        <v>-0.47128100000000006</v>
+      </c>
+      <c r="AJ50">
         <f t="shared" si="2"/>
-        <v>0.11199499999999996</v>
-      </c>
-      <c r="AE50">
+        <v>0.12300099999999997</v>
+      </c>
+      <c r="AK50">
         <f t="shared" si="3"/>
-        <v>-0.47128100000000006</v>
-      </c>
-      <c r="AF50">
+        <v>-0.12897100000000006</v>
+      </c>
+      <c r="AL50">
         <f t="shared" si="4"/>
-        <v>0.12300099999999997</v>
-      </c>
-      <c r="AG50">
+        <v>7.1029000000000009E-2</v>
+      </c>
+      <c r="AM50">
         <f t="shared" si="5"/>
-        <v>-0.12897100000000006</v>
-      </c>
-      <c r="AH50">
+        <v>-0.94210700000000003</v>
+      </c>
+      <c r="AN50">
         <f t="shared" si="6"/>
-        <v>7.1029000000000009E-2</v>
-      </c>
-      <c r="AI50">
+        <v>-0.37978000000000001</v>
+      </c>
+      <c r="AP50" s="4">
         <f t="shared" si="7"/>
-        <v>-0.94210700000000003</v>
-      </c>
-      <c r="AJ50">
-        <f t="shared" si="8"/>
-        <v>-0.37978000000000001</v>
-      </c>
-      <c r="AK50" s="4">
-        <f t="shared" si="9"/>
         <v>-0.79974900000001981</v>
       </c>
-      <c r="AL50" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ50" s="4">
+        <f>C50-AA50</f>
         <v>-3.0452229999999929</v>
       </c>
-      <c r="AM50" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR50" s="4">
+        <f>D50-AB50</f>
         <v>-0.18404600000002347</v>
       </c>
-      <c r="AN50" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS50" s="4">
+        <f>E50-AC50</f>
         <v>-1.2668039999999792</v>
       </c>
-      <c r="AO50" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT50" s="4">
+        <f>F50-AD50</f>
         <v>0.49093099999998913</v>
       </c>
-      <c r="AP50" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU50" s="4">
+        <f>G50-AE50</f>
         <v>-2.2624059999999986</v>
       </c>
-      <c r="AQ50" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV50" s="4">
+        <f>H50-AF50</f>
         <v>-0.28957099999999514</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44713</v>
       </c>
@@ -3861,127 +4052,130 @@
       <c r="H51" s="3">
         <v>138</v>
       </c>
-      <c r="I51">
-        <v>0.9</v>
+      <c r="I51" s="6">
+        <v>138.19999999999999</v>
       </c>
       <c r="J51">
         <v>0.9</v>
       </c>
       <c r="K51">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L51">
         <v>0.7</v>
       </c>
       <c r="M51">
+        <v>0.7</v>
+      </c>
+      <c r="N51">
         <v>1.3</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0.6</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <v>0.54306299999999996</v>
       </c>
-      <c r="Q51">
+      <c r="S51">
         <v>1.247722</v>
       </c>
-      <c r="R51">
+      <c r="T51">
         <v>0.32315199999999999</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <v>0.76491699999999996</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <v>0.76491699999999996</v>
       </c>
-      <c r="U51">
+      <c r="W51">
         <v>1.0282279999999999</v>
       </c>
-      <c r="V51">
+      <c r="X51">
         <v>0.32806099999999999</v>
       </c>
-      <c r="W51">
+      <c r="Z51">
         <v>139.48717099999999</v>
       </c>
-      <c r="X51">
+      <c r="AA51">
         <v>143.41548900000001</v>
       </c>
-      <c r="Y51">
+      <c r="AB51">
         <v>138.25958499999999</v>
       </c>
-      <c r="Z51">
+      <c r="AC51">
         <v>141.63274699999999</v>
       </c>
-      <c r="AA51">
+      <c r="AD51">
         <v>136.67657500000001</v>
       </c>
-      <c r="AB51">
+      <c r="AE51">
         <v>144.90271999999999</v>
       </c>
-      <c r="AC51">
+      <c r="AF51">
         <v>138.16613599999999</v>
       </c>
-      <c r="AD51">
+      <c r="AH51">
+        <f t="shared" si="0"/>
+        <v>0.35693700000000006</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="1"/>
+        <v>-0.34772199999999998</v>
+      </c>
+      <c r="AJ51">
         <f t="shared" si="2"/>
-        <v>0.35693700000000006</v>
-      </c>
-      <c r="AE51">
+        <v>0.37684799999999996</v>
+      </c>
+      <c r="AK51">
         <f t="shared" si="3"/>
-        <v>-0.34772199999999998</v>
-      </c>
-      <c r="AF51">
+        <v>-6.4917000000000002E-2</v>
+      </c>
+      <c r="AL51">
         <f t="shared" si="4"/>
-        <v>0.37684799999999996</v>
-      </c>
-      <c r="AG51">
+        <v>0.53508300000000009</v>
+      </c>
+      <c r="AM51">
         <f t="shared" si="5"/>
-        <v>-6.4917000000000002E-2</v>
-      </c>
-      <c r="AH51">
+        <v>7.1772000000000169E-2</v>
+      </c>
+      <c r="AN51">
         <f t="shared" si="6"/>
-        <v>0.53508300000000009</v>
-      </c>
-      <c r="AI51">
+        <v>0.27193899999999999</v>
+      </c>
+      <c r="AP51" s="4">
         <f t="shared" si="7"/>
-        <v>7.1772000000000169E-2</v>
-      </c>
-      <c r="AJ51">
-        <f t="shared" si="8"/>
-        <v>0.27193899999999999</v>
-      </c>
-      <c r="AK51" s="4">
-        <f t="shared" si="9"/>
         <v>-0.48717099999998936</v>
       </c>
-      <c r="AL51" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ51" s="4">
+        <f>C51-AA51</f>
         <v>-3.0154890000000023</v>
       </c>
-      <c r="AM51" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR51" s="4">
+        <f>D51-AB51</f>
         <v>0.14041500000001861</v>
       </c>
-      <c r="AN51" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS51" s="4">
+        <f>E51-AC51</f>
         <v>-1.1327469999999948</v>
       </c>
-      <c r="AO51" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT51" s="4">
+        <f>F51-AD51</f>
         <v>1.3234249999999861</v>
       </c>
-      <c r="AP51" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU51" s="4">
+        <f>G51-AE51</f>
         <v>-1.6027199999999766</v>
       </c>
-      <c r="AQ51" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV51" s="4">
+        <f>H51-AF51</f>
         <v>-0.16613599999999451</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44805</v>
       </c>
@@ -4006,127 +4200,130 @@
       <c r="H52" s="3">
         <v>140.80000000000001</v>
       </c>
-      <c r="I52">
-        <v>2.1</v>
+      <c r="I52" s="6">
+        <v>139.80000000000001</v>
       </c>
       <c r="J52">
         <v>2.1</v>
       </c>
       <c r="K52">
+        <v>2.1</v>
+      </c>
+      <c r="L52">
         <v>2.4</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>2.8</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>2.4</v>
-      </c>
-      <c r="N52">
-        <v>2.8</v>
       </c>
       <c r="O52">
         <v>2.8</v>
       </c>
       <c r="P52">
+        <v>2.8</v>
+      </c>
+      <c r="R52">
         <v>1.293218</v>
       </c>
-      <c r="Q52">
+      <c r="S52">
         <v>1.644145</v>
       </c>
-      <c r="R52">
+      <c r="T52">
         <v>1.208853</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <v>1.9783109999999999</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <v>1.9783109999999999</v>
       </c>
-      <c r="U52">
+      <c r="W52">
         <v>2.5712679999999999</v>
       </c>
-      <c r="V52">
+      <c r="X52">
         <v>1.0077370000000001</v>
       </c>
-      <c r="W52">
+      <c r="Z52">
         <v>140.77476100000001</v>
       </c>
-      <c r="X52">
+      <c r="AA52">
         <v>144.60357400000001</v>
       </c>
-      <c r="Y52">
+      <c r="AB52">
         <v>139.53714500000001</v>
       </c>
-      <c r="Z52">
+      <c r="AC52">
         <v>143.362516</v>
       </c>
-      <c r="AA52">
+      <c r="AD52">
         <v>137.373819</v>
       </c>
-      <c r="AB52">
+      <c r="AE52">
         <v>146.84675300000001</v>
       </c>
-      <c r="AC52">
+      <c r="AF52">
         <v>139.626566</v>
       </c>
-      <c r="AD52">
+      <c r="AH52">
+        <f t="shared" si="0"/>
+        <v>0.80678200000000011</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="1"/>
+        <v>0.45585500000000012</v>
+      </c>
+      <c r="AJ52">
         <f t="shared" si="2"/>
-        <v>0.80678200000000011</v>
-      </c>
-      <c r="AE52">
+        <v>1.191147</v>
+      </c>
+      <c r="AK52">
         <f t="shared" si="3"/>
-        <v>0.45585500000000012</v>
-      </c>
-      <c r="AF52">
+        <v>0.82168899999999989</v>
+      </c>
+      <c r="AL52">
         <f t="shared" si="4"/>
-        <v>1.191147</v>
-      </c>
-      <c r="AG52">
+        <v>0.42168899999999998</v>
+      </c>
+      <c r="AM52">
         <f t="shared" si="5"/>
-        <v>0.82168899999999989</v>
-      </c>
-      <c r="AH52">
+        <v>0.22873199999999994</v>
+      </c>
+      <c r="AN52">
         <f t="shared" si="6"/>
-        <v>0.42168899999999998</v>
-      </c>
-      <c r="AI52">
+        <v>1.7922629999999997</v>
+      </c>
+      <c r="AP52" s="4">
         <f t="shared" si="7"/>
-        <v>0.22873199999999994</v>
-      </c>
-      <c r="AJ52">
-        <f t="shared" si="8"/>
-        <v>1.7922629999999997</v>
-      </c>
-      <c r="AK52" s="4">
-        <f t="shared" si="9"/>
         <v>0.32523899999998207</v>
       </c>
-      <c r="AL52" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ52" s="4">
+        <f>C52-AA52</f>
         <v>-2.1035740000000089</v>
       </c>
-      <c r="AM52" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR52" s="4">
+        <f>D52-AB52</f>
         <v>1.2628550000000018</v>
       </c>
-      <c r="AN52" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS52" s="4">
+        <f>E52-AC52</f>
         <v>-6.2515999999988026E-2</v>
       </c>
-      <c r="AO52" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT52" s="4">
+        <f>F52-AD52</f>
         <v>3.0261810000000082</v>
       </c>
-      <c r="AP52" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU52" s="4">
+        <f>G52-AE52</f>
         <v>-0.74675300000001243</v>
       </c>
-      <c r="AQ52" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV52" s="4">
+        <f>H52-AF52</f>
         <v>1.1734340000000145</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44896</v>
       </c>
@@ -4151,127 +4348,130 @@
       <c r="H53" s="3">
         <v>142.30000000000001</v>
       </c>
-      <c r="I53">
-        <v>1.1000000000000001</v>
+      <c r="I53" s="6">
+        <v>141</v>
       </c>
       <c r="J53">
         <v>1.1000000000000001</v>
       </c>
       <c r="K53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L53">
         <v>1.2</v>
-      </c>
-      <c r="L53">
-        <v>1.1000000000000001</v>
       </c>
       <c r="M53">
         <v>1.1000000000000001</v>
       </c>
       <c r="N53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O53">
         <v>1.2</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>1.5</v>
       </c>
-      <c r="P53">
+      <c r="R53">
         <v>0.56355200000000005</v>
       </c>
-      <c r="Q53">
+      <c r="S53">
         <v>1.5060039999999999</v>
       </c>
-      <c r="R53">
+      <c r="T53">
         <v>0.335233</v>
       </c>
-      <c r="S53">
+      <c r="U53">
         <v>0.72921599999999998</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <v>0.72921599999999998</v>
       </c>
-      <c r="U53">
+      <c r="W53">
         <v>1.0811090000000001</v>
       </c>
-      <c r="V53">
+      <c r="X53">
         <v>0.187449</v>
       </c>
-      <c r="W53">
+      <c r="Z53">
         <v>141.36227500000001</v>
       </c>
-      <c r="X53">
+      <c r="AA53">
         <v>145.624323</v>
       </c>
-      <c r="Y53">
+      <c r="AB53">
         <v>139.95055500000001</v>
       </c>
-      <c r="Z53">
+      <c r="AC53">
         <v>143.754255</v>
       </c>
-      <c r="AA53">
+      <c r="AD53">
         <v>137.87478400000001</v>
       </c>
-      <c r="AB53">
+      <c r="AE53">
         <v>147.237796</v>
       </c>
-      <c r="AC53">
+      <c r="AF53">
         <v>140.40726100000001</v>
       </c>
-      <c r="AD53">
+      <c r="AH53">
+        <f t="shared" si="0"/>
+        <v>0.53644800000000004</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="1"/>
+        <v>-0.40600399999999981</v>
+      </c>
+      <c r="AJ53">
         <f t="shared" si="2"/>
-        <v>0.53644800000000004</v>
-      </c>
-      <c r="AE53">
+        <v>0.86476699999999995</v>
+      </c>
+      <c r="AK53">
         <f t="shared" si="3"/>
-        <v>-0.40600399999999981</v>
-      </c>
-      <c r="AF53">
+        <v>0.37078400000000011</v>
+      </c>
+      <c r="AL53">
         <f t="shared" si="4"/>
-        <v>0.86476699999999995</v>
-      </c>
-      <c r="AG53">
+        <v>0.37078400000000011</v>
+      </c>
+      <c r="AM53">
         <f t="shared" si="5"/>
-        <v>0.37078400000000011</v>
-      </c>
-      <c r="AH53">
+        <v>0.11889099999999986</v>
+      </c>
+      <c r="AN53">
         <f t="shared" si="6"/>
-        <v>0.37078400000000011</v>
-      </c>
-      <c r="AI53">
+        <v>1.312551</v>
+      </c>
+      <c r="AP53" s="4">
         <f t="shared" si="7"/>
-        <v>0.11889099999999986</v>
-      </c>
-      <c r="AJ53">
-        <f t="shared" si="8"/>
-        <v>1.312551</v>
-      </c>
-      <c r="AK53" s="4">
-        <f t="shared" si="9"/>
         <v>0.83772499999997763</v>
       </c>
-      <c r="AL53" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ53" s="4">
+        <f>C53-AA53</f>
         <v>-2.0243230000000096</v>
       </c>
-      <c r="AM53" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR53" s="4">
+        <f>D53-AB53</f>
         <v>2.0494449999999915</v>
       </c>
-      <c r="AN53" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS53" s="4">
+        <f>E53-AC53</f>
         <v>0.64574500000000512</v>
       </c>
-      <c r="AO53" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT53" s="4">
+        <f>F53-AD53</f>
         <v>3.6252159999999947</v>
       </c>
-      <c r="AP53" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU53" s="4">
+        <f>G53-AE53</f>
         <v>6.2204000000008364E-2</v>
       </c>
-      <c r="AQ53" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV53" s="4">
+        <f>H53-AF53</f>
         <v>1.8927390000000059</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44986</v>
       </c>
@@ -4296,127 +4496,130 @@
       <c r="H54" s="3">
         <v>143.1</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="6">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="J54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>1</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>0.9</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>1</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>1.2</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>0.9</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>0.8</v>
       </c>
-      <c r="P54">
+      <c r="R54">
         <v>0.63541199999999998</v>
       </c>
-      <c r="Q54">
+      <c r="S54">
         <v>1.574498</v>
       </c>
-      <c r="R54">
+      <c r="T54">
         <v>0.46639000000000003</v>
       </c>
-      <c r="S54">
+      <c r="U54">
         <v>0.91969599999999996</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <v>0.91969599999999996</v>
       </c>
-      <c r="U54">
+      <c r="W54">
         <v>1.777631</v>
       </c>
-      <c r="V54">
+      <c r="X54">
         <v>0.345918</v>
       </c>
-      <c r="W54">
+      <c r="Z54">
         <v>142.04918900000001</v>
       </c>
-      <c r="X54">
+      <c r="AA54">
         <v>146.550702</v>
       </c>
-      <c r="Y54">
+      <c r="AB54">
         <v>140.47606099999999</v>
       </c>
-      <c r="Z54">
+      <c r="AC54">
         <v>144.35739100000001</v>
       </c>
-      <c r="AA54">
+      <c r="AD54">
         <v>138.556994</v>
       </c>
-      <c r="AB54">
+      <c r="AE54">
         <v>148.249</v>
       </c>
-      <c r="AC54">
+      <c r="AF54">
         <v>141.17662799999999</v>
       </c>
-      <c r="AD54">
+      <c r="AH54">
+        <f t="shared" si="0"/>
+        <v>0.46458800000000011</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="1"/>
+        <v>-0.57449799999999995</v>
+      </c>
+      <c r="AJ54">
         <f t="shared" si="2"/>
-        <v>0.46458800000000011</v>
-      </c>
-      <c r="AE54">
+        <v>0.43361</v>
+      </c>
+      <c r="AK54">
         <f t="shared" si="3"/>
-        <v>-0.57449799999999995</v>
-      </c>
-      <c r="AF54">
+        <v>8.0304000000000042E-2</v>
+      </c>
+      <c r="AL54">
         <f t="shared" si="4"/>
-        <v>0.43361</v>
-      </c>
-      <c r="AG54">
+        <v>0.280304</v>
+      </c>
+      <c r="AM54">
         <f t="shared" si="5"/>
-        <v>8.0304000000000042E-2</v>
-      </c>
-      <c r="AH54">
+        <v>-0.87763099999999994</v>
+      </c>
+      <c r="AN54">
         <f t="shared" si="6"/>
-        <v>0.280304</v>
-      </c>
-      <c r="AI54">
+        <v>0.45408200000000004</v>
+      </c>
+      <c r="AP54" s="4">
         <f t="shared" si="7"/>
-        <v>-0.87763099999999994</v>
-      </c>
-      <c r="AJ54">
-        <f t="shared" si="8"/>
-        <v>0.45408200000000004</v>
-      </c>
-      <c r="AK54" s="4">
-        <f t="shared" si="9"/>
         <v>1.2508109999999988</v>
       </c>
-      <c r="AL54" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ54" s="4">
+        <f>C54-AA54</f>
         <v>-1.9507020000000068</v>
       </c>
-      <c r="AM54" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR54" s="4">
+        <f>D54-AB54</f>
         <v>2.4239390000000185</v>
       </c>
-      <c r="AN54" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS54" s="4">
+        <f>E54-AC54</f>
         <v>1.0426089999999988</v>
       </c>
-      <c r="AO54" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT54" s="4">
+        <f>F54-AD54</f>
         <v>4.1430059999999855</v>
       </c>
-      <c r="AP54" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU54" s="4">
+        <f>G54-AE54</f>
         <v>-4.9000000000006594E-2</v>
       </c>
-      <c r="AQ54" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV54" s="4">
+        <f>H54-AF54</f>
         <v>1.9233720000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45078</v>
       </c>
@@ -4441,123 +4644,126 @@
       <c r="H55" s="3">
         <v>144.1</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="6">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="J55">
         <v>0.7</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>0.8</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>0.9</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>1.3</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>0.6</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>1</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <v>0.65911500000000001</v>
       </c>
-      <c r="Q55">
+      <c r="S55">
         <v>1.477681</v>
       </c>
-      <c r="R55">
+      <c r="T55">
         <v>0.325627</v>
       </c>
-      <c r="S55">
+      <c r="U55">
         <v>0.91389500000000001</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <v>0.91389500000000001</v>
       </c>
-      <c r="U55">
+      <c r="W55">
         <v>1.088069</v>
       </c>
-      <c r="V55">
+      <c r="X55">
         <v>2.7550000000000002E-2</v>
       </c>
-      <c r="W55">
+      <c r="Z55">
         <v>142.72375</v>
       </c>
-      <c r="X55">
+      <c r="AA55">
         <v>147.386967</v>
       </c>
-      <c r="Y55">
+      <c r="AB55">
         <v>140.874493</v>
       </c>
-      <c r="Z55">
+      <c r="AC55">
         <v>144.989869</v>
       </c>
-      <c r="AA55">
+      <c r="AD55">
         <v>139.04693900000001</v>
       </c>
-      <c r="AB55">
+      <c r="AE55">
         <v>148.44850199999999</v>
       </c>
-      <c r="AC55">
+      <c r="AF55">
         <v>141.878648</v>
       </c>
-      <c r="AD55">
+      <c r="AH55">
+        <f t="shared" si="0"/>
+        <v>4.0884999999999949E-2</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="1"/>
+        <v>-0.47768100000000002</v>
+      </c>
+      <c r="AJ55">
         <f t="shared" si="2"/>
-        <v>4.0884999999999949E-2</v>
-      </c>
-      <c r="AE55">
+        <v>0.47437300000000004</v>
+      </c>
+      <c r="AK55">
         <f t="shared" si="3"/>
-        <v>-0.47768100000000002</v>
-      </c>
-      <c r="AF55">
+        <v>-1.3894999999999991E-2</v>
+      </c>
+      <c r="AL55">
         <f t="shared" si="4"/>
-        <v>0.47437300000000004</v>
-      </c>
-      <c r="AG55">
+        <v>0.38610500000000003</v>
+      </c>
+      <c r="AM55">
         <f t="shared" si="5"/>
-        <v>-1.3894999999999991E-2</v>
-      </c>
-      <c r="AH55">
+        <v>-0.48806899999999998</v>
+      </c>
+      <c r="AN55">
         <f t="shared" si="6"/>
-        <v>0.38610500000000003</v>
-      </c>
-      <c r="AI55">
+        <v>0.97245000000000004</v>
+      </c>
+      <c r="AP55" s="4">
         <f t="shared" si="7"/>
-        <v>-0.48806899999999998</v>
-      </c>
-      <c r="AJ55">
-        <f t="shared" si="8"/>
-        <v>0.97245000000000004</v>
-      </c>
-      <c r="AK55" s="4">
-        <f t="shared" si="9"/>
         <v>1.2762500000000045</v>
       </c>
-      <c r="AL55" s="4">
-        <f t="shared" si="1"/>
+      <c r="AQ55" s="4">
+        <f>C55-AA55</f>
         <v>-1.7869670000000042</v>
       </c>
-      <c r="AM55" s="4">
-        <f t="shared" si="1"/>
+      <c r="AR55" s="4">
+        <f>D55-AB55</f>
         <v>2.8255069999999876</v>
       </c>
-      <c r="AN55" s="4">
-        <f t="shared" si="1"/>
+      <c r="AS55" s="4">
+        <f>E55-AC55</f>
         <v>1.3101310000000126</v>
       </c>
-      <c r="AO55" s="4">
-        <f t="shared" si="1"/>
+      <c r="AT55" s="4">
+        <f>F55-AD55</f>
         <v>4.9530609999999911</v>
       </c>
-      <c r="AP55" s="4">
-        <f t="shared" si="1"/>
+      <c r="AU55" s="4">
+        <f>G55-AE55</f>
         <v>0.35149800000002074</v>
       </c>
-      <c r="AQ55" s="4">
-        <f t="shared" si="1"/>
+      <c r="AV55" s="4">
+        <f>H55-AF55</f>
         <v>2.221351999999996</v>
       </c>
     </row>
